--- a/corona.xlsx
+++ b/corona.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Desktop\covid-19\COVID-19-Brazil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1D8246E-210D-4E83-BECF-89E42D66E6DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1346BF5D-F609-4DC0-AC93-EC8AF65EBA19}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{191F3AD6-C670-427A-8F8F-1640664483E7}"/>
   </bookViews>
@@ -33,85 +33,85 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>Goias</t>
-  </si>
-  <si>
-    <t>Acre</t>
+    <t>São-Paulo</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>Rio-grande-do-sul</t>
+  </si>
+  <si>
+    <t>Sergipe</t>
+  </si>
+  <si>
+    <t>Bahia</t>
   </si>
   <si>
     <t>Amazonas</t>
-  </si>
-  <si>
-    <t>Amapa</t>
-  </si>
-  <si>
-    <t>Para</t>
-  </si>
-  <si>
-    <t>Rondonia</t>
-  </si>
-  <si>
-    <t>Roraima</t>
-  </si>
-  <si>
-    <t>Tocantins</t>
-  </si>
-  <si>
-    <t>Alagoas</t>
-  </si>
-  <si>
-    <t>Bahia</t>
-  </si>
-  <si>
-    <t>Ceara</t>
-  </si>
-  <si>
-    <t>Maranhao</t>
-  </si>
-  <si>
-    <t>Piaui</t>
-  </si>
-  <si>
-    <t>Pernambuco</t>
-  </si>
-  <si>
-    <t>Paraiba</t>
-  </si>
-  <si>
-    <t>Sergipe</t>
-  </si>
-  <si>
-    <t>Parana</t>
-  </si>
-  <si>
-    <t>São-Paulo</t>
-  </si>
-  <si>
-    <t>Rio-de-Janeiro</t>
-  </si>
-  <si>
-    <t>Minas-Gerais</t>
-  </si>
-  <si>
-    <t>Espirito-Santo</t>
-  </si>
-  <si>
-    <t>Santa-Catarina</t>
-  </si>
-  <si>
-    <t>Rio-Grande-do-sul</t>
-  </si>
-  <si>
-    <t>Rio-Grande-do-norte</t>
-  </si>
-  <si>
-    <t>Destrito-Federal</t>
-  </si>
-  <si>
-    <t>Mato-Grosso-do-Sul</t>
-  </si>
-  <si>
-    <t>Mato-Grosso</t>
   </si>
 </sst>
 </file>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B01BA4A-392A-4156-ACAC-EF1CB3E7D963}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,221 +476,224 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>46</v>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B27">
+    <sortCondition ref="B27"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
